--- a/notebooks/Data/Star_Wars_Episode_II_Attack_of_the_Clones/centrality.xlsx
+++ b/notebooks/Data/Star_Wars_Episode_II_Attack_of_the_Clones/centrality.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
   <si>
     <t>betweenness_centrality</t>
   </si>
@@ -28,9 +28,15 @@
     <t>eigenvector_centrality</t>
   </si>
   <si>
+    <t>in_degree</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
+    <t>out_degree</t>
+  </si>
+  <si>
     <t>Dexter Jettster</t>
   </si>
   <si>
@@ -205,100 +211,100 @@
     <t>Obi-Wan Kenobi</t>
   </si>
   <si>
+    <t>Palo Jemabie</t>
+  </si>
+  <si>
+    <t>Graf Zapalo</t>
+  </si>
+  <si>
+    <t>Ki-Adi-Mundi</t>
+  </si>
+  <si>
+    <t>Yoda</t>
+  </si>
+  <si>
+    <t>Even Piell</t>
+  </si>
+  <si>
+    <t>Nicanas Tassu</t>
+  </si>
+  <si>
+    <t>Braata</t>
+  </si>
+  <si>
+    <t>Jempa</t>
+  </si>
+  <si>
+    <t>Edern Lars</t>
+  </si>
+  <si>
+    <t>Que-Mars Redath-Gom</t>
+  </si>
+  <si>
+    <t>Tox Don</t>
+  </si>
+  <si>
+    <t>Tikkes</t>
+  </si>
+  <si>
+    <t>Sun Fac</t>
+  </si>
+  <si>
+    <t>Tundra Dowmeia</t>
+  </si>
+  <si>
+    <t>Hermione Bagwa</t>
+  </si>
+  <si>
+    <t>Teckla Minnau</t>
+  </si>
+  <si>
+    <t>Lexi Dio</t>
+  </si>
+  <si>
+    <t>R2-D2</t>
+  </si>
+  <si>
+    <t>Owen Lars</t>
+  </si>
+  <si>
+    <t>Wat Tambor</t>
+  </si>
+  <si>
+    <t>Chon Actrion</t>
+  </si>
+  <si>
+    <t>Galdos Stouff</t>
+  </si>
+  <si>
+    <t>Agen Kolar</t>
+  </si>
+  <si>
+    <t>Ryoo Naberrie</t>
+  </si>
+  <si>
+    <t>Pooja Naberrie</t>
+  </si>
+  <si>
+    <t>CT-411</t>
+  </si>
+  <si>
+    <t>Zam Wesell</t>
+  </si>
+  <si>
+    <t>Po Nudo</t>
+  </si>
+  <si>
+    <t>Fi-Ek Sirch</t>
+  </si>
+  <si>
+    <t>Magaloof</t>
+  </si>
+  <si>
+    <t>Dormé</t>
+  </si>
+  <si>
     <t>Eeth Koth</t>
-  </si>
-  <si>
-    <t>Graf Zapalo</t>
-  </si>
-  <si>
-    <t>Ki-Adi-Mundi</t>
-  </si>
-  <si>
-    <t>Yoda</t>
-  </si>
-  <si>
-    <t>Even Piell</t>
-  </si>
-  <si>
-    <t>Nicanas Tassu</t>
-  </si>
-  <si>
-    <t>Braata</t>
-  </si>
-  <si>
-    <t>Jempa</t>
-  </si>
-  <si>
-    <t>Edern Lars</t>
-  </si>
-  <si>
-    <t>Que-Mars Redath-Gom</t>
-  </si>
-  <si>
-    <t>Tox Don</t>
-  </si>
-  <si>
-    <t>Tikkes</t>
-  </si>
-  <si>
-    <t>Sun Fac</t>
-  </si>
-  <si>
-    <t>Tundra Dowmeia</t>
-  </si>
-  <si>
-    <t>Hermione Bagwa</t>
-  </si>
-  <si>
-    <t>Teckla Minnau</t>
-  </si>
-  <si>
-    <t>Lexi Dio</t>
-  </si>
-  <si>
-    <t>R2-D2</t>
-  </si>
-  <si>
-    <t>Owen Lars</t>
-  </si>
-  <si>
-    <t>Wat Tambor</t>
-  </si>
-  <si>
-    <t>Chon Actrion</t>
-  </si>
-  <si>
-    <t>Galdos Stouff</t>
-  </si>
-  <si>
-    <t>Agen Kolar</t>
-  </si>
-  <si>
-    <t>Ryoo Naberrie</t>
-  </si>
-  <si>
-    <t>Pooja Naberrie</t>
-  </si>
-  <si>
-    <t>CT-411</t>
-  </si>
-  <si>
-    <t>Zam Wesell</t>
-  </si>
-  <si>
-    <t>Po Nudo</t>
-  </si>
-  <si>
-    <t>Fi-Ek Sirch</t>
-  </si>
-  <si>
-    <t>Magaloof</t>
-  </si>
-  <si>
-    <t>Dormé</t>
-  </si>
-  <si>
-    <t>Palo Jemabie</t>
   </si>
   <si>
     <t>Paddy Accu</t>
@@ -791,13 +797,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F136"/>
+  <dimension ref="A1:H136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -813,8 +819,14 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -828,13 +840,19 @@
         <v>0.05223880597014925</v>
       </c>
       <c r="E2">
-        <v>0.02144550121794863</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.02144550121794862</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -848,13 +866,19 @@
         <v>0.007462686567164179</v>
       </c>
       <c r="E3">
-        <v>2.455480850087047e-14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>2.455480850087046e-14</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -868,13 +892,19 @@
         <v>0.1044776119402985</v>
       </c>
       <c r="E4">
-        <v>0.0585334811222988</v>
-      </c>
-      <c r="F4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.05853348112229879</v>
+      </c>
+      <c r="F4">
+        <v>6</v>
+      </c>
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -888,13 +918,19 @@
         <v>0.04477611940298507</v>
       </c>
       <c r="E5">
-        <v>0.006632132612788942</v>
-      </c>
-      <c r="F5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>0.00663213261278894</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -910,11 +946,17 @@
       <c r="E6">
         <v>0.004186450901916427</v>
       </c>
-      <c r="F6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -930,11 +972,17 @@
       <c r="E7">
         <v>0.09310889046391102</v>
       </c>
-      <c r="F7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="F7">
+        <v>9</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -948,13 +996,19 @@
         <v>0.08208955223880597</v>
       </c>
       <c r="E8">
-        <v>2.455480850087047e-14</v>
-      </c>
-      <c r="F8" t="s">
+        <v>2.455480850087046e-14</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -970,11 +1024,17 @@
       <c r="E9">
         <v>2.701028935095751e-13</v>
       </c>
-      <c r="F9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -988,13 +1048,19 @@
         <v>0.02985074626865672</v>
       </c>
       <c r="E10">
-        <v>2.455480850087047e-14</v>
-      </c>
-      <c r="F10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>2.455480850087046e-14</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1008,13 +1074,19 @@
         <v>0.4552238805970149</v>
       </c>
       <c r="E11">
-        <v>0.2618233098734618</v>
-      </c>
-      <c r="F11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.2618233098734617</v>
+      </c>
+      <c r="F11">
+        <v>42</v>
+      </c>
+      <c r="G11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1030,11 +1102,17 @@
       <c r="E12">
         <v>0.0386247455191495</v>
       </c>
-      <c r="F12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="F12">
+        <v>5</v>
+      </c>
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1048,13 +1126,19 @@
         <v>0.02985074626865672</v>
       </c>
       <c r="E13">
-        <v>2.455480850087047e-14</v>
-      </c>
-      <c r="F13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>2.455480850087046e-14</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1068,13 +1152,19 @@
         <v>0.03731343283582089</v>
       </c>
       <c r="E14">
-        <v>2.514412390489136e-11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>2.514412390489135e-11</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1088,13 +1178,19 @@
         <v>0.02985074626865672</v>
       </c>
       <c r="E15">
-        <v>0.01247717905899594</v>
-      </c>
-      <c r="F15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>0.01247717905899593</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1110,11 +1206,17 @@
       <c r="E16">
         <v>2.701028935095751e-13</v>
       </c>
-      <c r="F16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1130,11 +1232,17 @@
       <c r="E17">
         <v>0.003711942428032051</v>
       </c>
-      <c r="F17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1148,13 +1256,19 @@
         <v>0.1791044776119403</v>
       </c>
       <c r="E18">
-        <v>0.09717836577847853</v>
-      </c>
-      <c r="F18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>0.09717836577847852</v>
+      </c>
+      <c r="F18">
+        <v>9</v>
+      </c>
+      <c r="G18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1170,11 +1284,17 @@
       <c r="E19">
         <v>0.1341371586890543</v>
       </c>
-      <c r="F19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="F19">
+        <v>16</v>
+      </c>
+      <c r="G19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1188,13 +1308,19 @@
         <v>0.1044776119402985</v>
       </c>
       <c r="E20">
-        <v>0.04686379776670074</v>
-      </c>
-      <c r="F20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.04686379776670072</v>
+      </c>
+      <c r="F20">
+        <v>6</v>
+      </c>
+      <c r="G20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1208,13 +1334,19 @@
         <v>0.2537313432835821</v>
       </c>
       <c r="E21">
-        <v>0.1482361462768889</v>
-      </c>
-      <c r="F21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.1482361462768888</v>
+      </c>
+      <c r="F21">
+        <v>20</v>
+      </c>
+      <c r="G21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1228,13 +1360,19 @@
         <v>0.05223880597014925</v>
       </c>
       <c r="E22">
-        <v>2.687769338505282e-10</v>
-      </c>
-      <c r="F22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>2.687769338505281e-10</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1248,18 +1386,24 @@
         <v>0.835820895522388</v>
       </c>
       <c r="E23">
-        <v>0.2982687018315968</v>
-      </c>
-      <c r="F23" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>0.2982687018315967</v>
+      </c>
+      <c r="F23">
+        <v>69</v>
+      </c>
+      <c r="G23" t="s">
+        <v>28</v>
+      </c>
+      <c r="H23">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.01642789718572909</v>
+        <v>0.01642789718572908</v>
       </c>
       <c r="C24">
         <v>38</v>
@@ -1270,11 +1414,17 @@
       <c r="E24">
         <v>0.1506826439101868</v>
       </c>
-      <c r="F24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="F24">
+        <v>17</v>
+      </c>
+      <c r="G24" t="s">
+        <v>29</v>
+      </c>
+      <c r="H24">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1290,11 +1440,17 @@
       <c r="E25">
         <v>0.1955125978981932</v>
       </c>
-      <c r="F25" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="F25">
+        <v>26</v>
+      </c>
+      <c r="G25" t="s">
+        <v>30</v>
+      </c>
+      <c r="H25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1310,11 +1466,17 @@
       <c r="E26">
         <v>0.02136579416248234</v>
       </c>
-      <c r="F26" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="F26">
+        <v>4</v>
+      </c>
+      <c r="G26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1328,13 +1490,19 @@
         <v>0.04477611940298507</v>
       </c>
       <c r="E27">
-        <v>1.866165446066156e-12</v>
-      </c>
-      <c r="F27" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>1.866165446066155e-12</v>
+      </c>
+      <c r="F27">
+        <v>3</v>
+      </c>
+      <c r="G27" t="s">
+        <v>32</v>
+      </c>
+      <c r="H27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1350,11 +1518,17 @@
       <c r="E28">
         <v>0.02729532188113399</v>
       </c>
-      <c r="F28" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="F28">
+        <v>4</v>
+      </c>
+      <c r="G28" t="s">
+        <v>33</v>
+      </c>
+      <c r="H28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1370,11 +1544,17 @@
       <c r="E29">
         <v>2.701028935095751e-13</v>
       </c>
-      <c r="F29" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" t="s">
+        <v>34</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1388,13 +1568,19 @@
         <v>0.1865671641791045</v>
       </c>
       <c r="E30">
-        <v>0.07287551024603613</v>
-      </c>
-      <c r="F30" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.07287551024603611</v>
+      </c>
+      <c r="F30">
+        <v>7</v>
+      </c>
+      <c r="G30" t="s">
+        <v>35</v>
+      </c>
+      <c r="H30">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1410,11 +1596,17 @@
       <c r="E31">
         <v>0.1097935102538387</v>
       </c>
-      <c r="F31" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="F31">
+        <v>10</v>
+      </c>
+      <c r="G31" t="s">
+        <v>36</v>
+      </c>
+      <c r="H31">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1428,13 +1620,19 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>2.455480850087047e-14</v>
-      </c>
-      <c r="F32" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>2.455480850087046e-14</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32" t="s">
+        <v>37</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1450,11 +1648,17 @@
       <c r="E33">
         <v>0.01762952066764564</v>
       </c>
-      <c r="F33" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="F33">
+        <v>4</v>
+      </c>
+      <c r="G33" t="s">
+        <v>38</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1470,11 +1674,17 @@
       <c r="E34">
         <v>0.03855860233692904</v>
       </c>
-      <c r="F34" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="F34">
+        <v>4</v>
+      </c>
+      <c r="G34" t="s">
+        <v>39</v>
+      </c>
+      <c r="H34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1488,13 +1698,19 @@
         <v>0.007462686567164179</v>
       </c>
       <c r="E35">
-        <v>2.455480850087047e-14</v>
-      </c>
-      <c r="F35" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>2.455480850087046e-14</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35" t="s">
+        <v>40</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1510,11 +1726,17 @@
       <c r="E36">
         <v>0.001231957627731822</v>
       </c>
-      <c r="F36" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36" t="s">
+        <v>41</v>
+      </c>
+      <c r="H36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1528,13 +1750,19 @@
         <v>0.01492537313432836</v>
       </c>
       <c r="E37">
-        <v>2.455480850087047e-14</v>
-      </c>
-      <c r="F37" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+        <v>2.455480850087046e-14</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37" t="s">
+        <v>42</v>
+      </c>
+      <c r="H37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1548,13 +1776,19 @@
         <v>0.1268656716417911</v>
       </c>
       <c r="E38">
-        <v>0.09783422281736534</v>
-      </c>
-      <c r="F38" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.09783422281736533</v>
+      </c>
+      <c r="F38">
+        <v>8</v>
+      </c>
+      <c r="G38" t="s">
+        <v>43</v>
+      </c>
+      <c r="H38">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1568,13 +1802,19 @@
         <v>0.2611940298507462</v>
       </c>
       <c r="E39">
-        <v>0.212089909069801</v>
-      </c>
-      <c r="F39" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.2120899090698009</v>
+      </c>
+      <c r="F39">
+        <v>25</v>
+      </c>
+      <c r="G39" t="s">
+        <v>44</v>
+      </c>
+      <c r="H39">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1588,13 +1828,19 @@
         <v>0.02238805970149254</v>
       </c>
       <c r="E40">
-        <v>2.455480850087047e-14</v>
-      </c>
-      <c r="F40" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>2.455480850087046e-14</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1608,13 +1854,19 @@
         <v>0.02985074626865672</v>
       </c>
       <c r="E41">
-        <v>0.003900711649066044</v>
-      </c>
-      <c r="F41" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.003900711649066043</v>
+      </c>
+      <c r="F41">
+        <v>2</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1630,11 +1882,17 @@
       <c r="E42">
         <v>0.2717601580132769</v>
       </c>
-      <c r="F42" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="F42">
+        <v>65</v>
+      </c>
+      <c r="G42" t="s">
+        <v>47</v>
+      </c>
+      <c r="H42">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1648,13 +1906,19 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <v>2.455480850087047e-14</v>
-      </c>
-      <c r="F43" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>2.455480850087046e-14</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43" t="s">
+        <v>48</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1670,11 +1934,17 @@
       <c r="E44">
         <v>0.1137798297120999</v>
       </c>
-      <c r="F44" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+      <c r="F44">
+        <v>14</v>
+      </c>
+      <c r="G44" t="s">
+        <v>49</v>
+      </c>
+      <c r="H44">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1690,11 +1960,17 @@
       <c r="E45">
         <v>0.2464198879473505</v>
       </c>
-      <c r="F45" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="F45">
+        <v>42</v>
+      </c>
+      <c r="G45" t="s">
+        <v>50</v>
+      </c>
+      <c r="H45">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1708,13 +1984,19 @@
         <v>0.02985074626865672</v>
       </c>
       <c r="E46">
-        <v>2.455480850087047e-14</v>
-      </c>
-      <c r="F46" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>2.455480850087046e-14</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46" t="s">
+        <v>51</v>
+      </c>
+      <c r="H46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1730,11 +2012,17 @@
       <c r="E47">
         <v>2.701028935095751e-13</v>
       </c>
-      <c r="F47" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47" t="s">
+        <v>52</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1748,13 +2036,19 @@
         <v>0.01492537313432836</v>
       </c>
       <c r="E48">
-        <v>2.455480850087047e-14</v>
-      </c>
-      <c r="F48" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>2.455480850087046e-14</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48" t="s">
+        <v>53</v>
+      </c>
+      <c r="H48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1768,13 +2062,19 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>2.455480850087047e-14</v>
-      </c>
-      <c r="F49" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>2.455480850087046e-14</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49" t="s">
+        <v>54</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1788,13 +2088,19 @@
         <v>0.1194029850746269</v>
       </c>
       <c r="E50">
-        <v>0.06303989561971357</v>
-      </c>
-      <c r="F50" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.06303989561971356</v>
+      </c>
+      <c r="F50">
+        <v>5</v>
+      </c>
+      <c r="G50" t="s">
+        <v>55</v>
+      </c>
+      <c r="H50">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1810,11 +2116,17 @@
       <c r="E51">
         <v>0.1182791640779223</v>
       </c>
-      <c r="F51" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+      <c r="F51">
+        <v>16</v>
+      </c>
+      <c r="G51" t="s">
+        <v>56</v>
+      </c>
+      <c r="H51">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -1830,11 +2142,17 @@
       <c r="E52">
         <v>0.01892187814037557</v>
       </c>
-      <c r="F52" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="F52">
+        <v>2</v>
+      </c>
+      <c r="G52" t="s">
+        <v>57</v>
+      </c>
+      <c r="H52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -1850,11 +2168,17 @@
       <c r="E53">
         <v>0.01926692311200372</v>
       </c>
-      <c r="F53" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+      <c r="F53">
+        <v>3</v>
+      </c>
+      <c r="G53" t="s">
+        <v>58</v>
+      </c>
+      <c r="H53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -1868,13 +2192,19 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>2.455480850087047e-14</v>
-      </c>
-      <c r="F54" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>2.455480850087046e-14</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54" t="s">
+        <v>59</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -1888,13 +2218,19 @@
         <v>0.02985074626865672</v>
       </c>
       <c r="E55">
-        <v>2.455480850087047e-14</v>
-      </c>
-      <c r="F55" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>2.455480850087046e-14</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55" t="s">
+        <v>60</v>
+      </c>
+      <c r="H55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -1908,13 +2244,19 @@
         <v>0.01492537313432836</v>
       </c>
       <c r="E56">
-        <v>2.455480850087047e-14</v>
-      </c>
-      <c r="F56" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>2.455480850087046e-14</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56" t="s">
+        <v>61</v>
+      </c>
+      <c r="H56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -1928,13 +2270,19 @@
         <v>0.1119402985074627</v>
       </c>
       <c r="E57">
-        <v>0.08262723622105826</v>
-      </c>
-      <c r="F57" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>0.08262723622105825</v>
+      </c>
+      <c r="F57">
+        <v>10</v>
+      </c>
+      <c r="G57" t="s">
+        <v>62</v>
+      </c>
+      <c r="H57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -1950,11 +2298,17 @@
       <c r="E58">
         <v>0.06399911467435773</v>
       </c>
-      <c r="F58" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+      <c r="F58">
+        <v>12</v>
+      </c>
+      <c r="G58" t="s">
+        <v>63</v>
+      </c>
+      <c r="H58">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -1970,31 +2324,43 @@
       <c r="E59">
         <v>0.3078082121188441</v>
       </c>
-      <c r="F59" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+      <c r="F59">
+        <v>78</v>
+      </c>
+      <c r="G59" t="s">
+        <v>64</v>
+      </c>
+      <c r="H59">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.0004826622335880557</v>
+        <v>0</v>
       </c>
       <c r="C60">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D60">
-        <v>0.1194029850746269</v>
+        <v>0.02985074626865672</v>
       </c>
       <c r="E60">
-        <v>0.07376956536638371</v>
-      </c>
-      <c r="F60" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>0.01561186977399064</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60" t="s">
+        <v>65</v>
+      </c>
+      <c r="H60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -2008,13 +2374,19 @@
         <v>0.02238805970149254</v>
       </c>
       <c r="E61">
-        <v>2.455480850087047e-14</v>
-      </c>
-      <c r="F61" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>2.455480850087046e-14</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61" t="s">
+        <v>66</v>
+      </c>
+      <c r="H61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -2030,11 +2402,17 @@
       <c r="E62">
         <v>0.1154497259850788</v>
       </c>
-      <c r="F62" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="F62">
+        <v>12</v>
+      </c>
+      <c r="G62" t="s">
+        <v>67</v>
+      </c>
+      <c r="H62">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -2048,13 +2426,19 @@
         <v>0.3955223880597015</v>
       </c>
       <c r="E63">
-        <v>0.2232797699885382</v>
-      </c>
-      <c r="F63" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.2232797699885381</v>
+      </c>
+      <c r="F63">
+        <v>36</v>
+      </c>
+      <c r="G63" t="s">
+        <v>68</v>
+      </c>
+      <c r="H63">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -2068,13 +2452,19 @@
         <v>0.1044776119402985</v>
       </c>
       <c r="E64">
-        <v>0.0864203207321078</v>
-      </c>
-      <c r="F64" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.08642032073210779</v>
+      </c>
+      <c r="F64">
+        <v>8</v>
+      </c>
+      <c r="G64" t="s">
+        <v>69</v>
+      </c>
+      <c r="H64">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -2088,13 +2478,19 @@
         <v>0.04477611940298507</v>
       </c>
       <c r="E65">
-        <v>2.514412390489136e-11</v>
-      </c>
-      <c r="F65" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>2.514412390489135e-11</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65" t="s">
+        <v>70</v>
+      </c>
+      <c r="H65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -2108,13 +2504,19 @@
         <v>0</v>
       </c>
       <c r="E66">
-        <v>2.455480850087047e-14</v>
-      </c>
-      <c r="F66" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>2.455480850087046e-14</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66" t="s">
+        <v>71</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -2128,13 +2530,19 @@
         <v>0.007462686567164179</v>
       </c>
       <c r="E67">
-        <v>2.455480850087047e-14</v>
-      </c>
-      <c r="F67" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>2.455480850087046e-14</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67" t="s">
+        <v>72</v>
+      </c>
+      <c r="H67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -2150,11 +2558,17 @@
       <c r="E68">
         <v>0.002436461300354536</v>
       </c>
-      <c r="F68" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68" t="s">
+        <v>73</v>
+      </c>
+      <c r="H68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -2168,13 +2582,19 @@
         <v>0</v>
       </c>
       <c r="E69">
-        <v>2.455480850087047e-14</v>
-      </c>
-      <c r="F69" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>2.455480850087046e-14</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69" t="s">
+        <v>74</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -2188,13 +2608,19 @@
         <v>0.02985074626865672</v>
       </c>
       <c r="E70">
-        <v>0.003900711649066044</v>
-      </c>
-      <c r="F70" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+        <v>0.003900711649066043</v>
+      </c>
+      <c r="F70">
+        <v>2</v>
+      </c>
+      <c r="G70" t="s">
+        <v>75</v>
+      </c>
+      <c r="H70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -2208,13 +2634,19 @@
         <v>0.01492537313432836</v>
       </c>
       <c r="E71">
-        <v>3.769163104883618e-11</v>
-      </c>
-      <c r="F71" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>3.769163104883616e-11</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71" t="s">
+        <v>76</v>
+      </c>
+      <c r="H71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -2228,13 +2660,19 @@
         <v>0.007462686567164179</v>
       </c>
       <c r="E72">
-        <v>2.455480850087047e-14</v>
-      </c>
-      <c r="F72" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>2.455480850087046e-14</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72" t="s">
+        <v>77</v>
+      </c>
+      <c r="H72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -2248,13 +2686,19 @@
         <v>0.05223880597014925</v>
       </c>
       <c r="E73">
-        <v>3.771618585733705e-11</v>
-      </c>
-      <c r="F73" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>3.771618585733703e-11</v>
+      </c>
+      <c r="F73">
+        <v>2</v>
+      </c>
+      <c r="G73" t="s">
+        <v>78</v>
+      </c>
+      <c r="H73">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -2270,11 +2714,17 @@
       <c r="E74">
         <v>0.001231957627731822</v>
       </c>
-      <c r="F74" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74" t="s">
+        <v>79</v>
+      </c>
+      <c r="H74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -2288,13 +2738,19 @@
         <v>0.03731343283582089</v>
       </c>
       <c r="E75">
-        <v>0.01713462530082498</v>
-      </c>
-      <c r="F75" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.01713462530082499</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75" t="s">
+        <v>80</v>
+      </c>
+      <c r="H75">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -2308,18 +2764,24 @@
         <v>0.01492537313432836</v>
       </c>
       <c r="E76">
-        <v>2.455480850087047e-14</v>
-      </c>
-      <c r="F76" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>2.455480850087046e-14</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76" t="s">
+        <v>81</v>
+      </c>
+      <c r="H76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.009426707872971615</v>
+        <v>0.009426707872971613</v>
       </c>
       <c r="C77">
         <v>42</v>
@@ -2330,11 +2792,17 @@
       <c r="E77">
         <v>0.1574911400061889</v>
       </c>
-      <c r="F77" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+      <c r="F77">
+        <v>17</v>
+      </c>
+      <c r="G77" t="s">
+        <v>82</v>
+      </c>
+      <c r="H77">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -2348,13 +2816,19 @@
         <v>0.1343283582089552</v>
       </c>
       <c r="E78">
-        <v>0.06411431120940382</v>
-      </c>
-      <c r="F78" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.06411431120940383</v>
+      </c>
+      <c r="F78">
+        <v>8</v>
+      </c>
+      <c r="G78" t="s">
+        <v>83</v>
+      </c>
+      <c r="H78">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -2368,13 +2842,19 @@
         <v>0.1194029850746269</v>
       </c>
       <c r="E79">
-        <v>0.06474628483253868</v>
-      </c>
-      <c r="F79" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+        <v>0.06474628483253866</v>
+      </c>
+      <c r="F79">
+        <v>7</v>
+      </c>
+      <c r="G79" t="s">
+        <v>84</v>
+      </c>
+      <c r="H79">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -2388,13 +2868,19 @@
         <v>0</v>
       </c>
       <c r="E80">
-        <v>2.455480850087047e-14</v>
-      </c>
-      <c r="F80" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>2.455480850087046e-14</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80" t="s">
+        <v>85</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -2408,13 +2894,19 @@
         <v>0.01492537313432836</v>
       </c>
       <c r="E81">
-        <v>2.514412390489136e-11</v>
-      </c>
-      <c r="F81" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>2.514412390489135e-11</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81" t="s">
+        <v>86</v>
+      </c>
+      <c r="H81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -2428,13 +2920,19 @@
         <v>0.1119402985074627</v>
       </c>
       <c r="E82">
-        <v>0.06461640467758835</v>
-      </c>
-      <c r="F82" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>0.06461640467758833</v>
+      </c>
+      <c r="F82">
+        <v>7</v>
+      </c>
+      <c r="G82" t="s">
+        <v>87</v>
+      </c>
+      <c r="H82">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -2450,11 +2948,17 @@
       <c r="E83">
         <v>0.003506250916387605</v>
       </c>
-      <c r="F83" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+      <c r="F83">
+        <v>4</v>
+      </c>
+      <c r="G83" t="s">
+        <v>88</v>
+      </c>
+      <c r="H83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -2470,11 +2974,17 @@
       <c r="E84">
         <v>0.003506250916387605</v>
       </c>
-      <c r="F84" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="F84">
+        <v>4</v>
+      </c>
+      <c r="G84" t="s">
+        <v>89</v>
+      </c>
+      <c r="H84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -2488,13 +2998,19 @@
         <v>0.1044776119402985</v>
       </c>
       <c r="E85">
-        <v>0.04530344405071713</v>
-      </c>
-      <c r="F85" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.04530344405071712</v>
+      </c>
+      <c r="F85">
+        <v>4</v>
+      </c>
+      <c r="G85" t="s">
+        <v>90</v>
+      </c>
+      <c r="H85">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -2510,11 +3026,17 @@
       <c r="E86">
         <v>0.1448455284969117</v>
       </c>
-      <c r="F86" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+      <c r="F86">
+        <v>21</v>
+      </c>
+      <c r="G86" t="s">
+        <v>91</v>
+      </c>
+      <c r="H86">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -2530,11 +3052,17 @@
       <c r="E87">
         <v>2.701028935095751e-13</v>
       </c>
-      <c r="F87" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="G87" t="s">
+        <v>92</v>
+      </c>
+      <c r="H87">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -2548,13 +3076,19 @@
         <v>0</v>
       </c>
       <c r="E88">
-        <v>2.455480850087047e-14</v>
-      </c>
-      <c r="F88" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>2.455480850087046e-14</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88" t="s">
+        <v>93</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -2568,13 +3102,19 @@
         <v>0.007462686567164179</v>
       </c>
       <c r="E89">
-        <v>2.455480850087047e-14</v>
-      </c>
-      <c r="F89" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>2.455480850087046e-14</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89" t="s">
+        <v>94</v>
+      </c>
+      <c r="H89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -2588,33 +3128,45 @@
         <v>0.05223880597014925</v>
       </c>
       <c r="E90">
-        <v>2.455480850087047e-14</v>
-      </c>
-      <c r="F90" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>2.455480850087046e-14</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90" t="s">
+        <v>95</v>
+      </c>
+      <c r="H90">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0</v>
+        <v>0.0004826622335880557</v>
       </c>
       <c r="C91">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D91">
-        <v>0.02985074626865672</v>
+        <v>0.1194029850746269</v>
       </c>
       <c r="E91">
-        <v>0.01561186977399064</v>
-      </c>
-      <c r="F91" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>0.0737695653663837</v>
+      </c>
+      <c r="F91">
+        <v>9</v>
+      </c>
+      <c r="G91" t="s">
+        <v>96</v>
+      </c>
+      <c r="H91">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -2628,13 +3180,19 @@
         <v>0.01492537313432836</v>
       </c>
       <c r="E92">
-        <v>2.455480850087047e-14</v>
-      </c>
-      <c r="F92" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>2.455480850087046e-14</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92" t="s">
+        <v>97</v>
+      </c>
+      <c r="H92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -2648,13 +3206,19 @@
         <v>0.03731343283582089</v>
       </c>
       <c r="E93">
-        <v>2.455480850087047e-14</v>
-      </c>
-      <c r="F93" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>2.455480850087046e-14</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93" t="s">
+        <v>98</v>
+      </c>
+      <c r="H93">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -2670,16 +3234,22 @@
       <c r="E94">
         <v>0.1541571959434025</v>
       </c>
-      <c r="F94" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+      <c r="F94">
+        <v>18</v>
+      </c>
+      <c r="G94" t="s">
+        <v>99</v>
+      </c>
+      <c r="H94">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.003996554517224881</v>
+        <v>0.00399655451722488</v>
       </c>
       <c r="C95">
         <v>27</v>
@@ -2688,13 +3258,19 @@
         <v>0.2014925373134328</v>
       </c>
       <c r="E95">
-        <v>0.1301688562996523</v>
-      </c>
-      <c r="F95" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.1301688562996522</v>
+      </c>
+      <c r="F95">
+        <v>15</v>
+      </c>
+      <c r="G95" t="s">
+        <v>100</v>
+      </c>
+      <c r="H95">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -2708,13 +3284,19 @@
         <v>0</v>
       </c>
       <c r="E96">
-        <v>2.455480850087047e-14</v>
-      </c>
-      <c r="F96" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
+        <v>2.455480850087046e-14</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96" t="s">
+        <v>101</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -2730,11 +3312,17 @@
       <c r="E97">
         <v>0.0137549564489396</v>
       </c>
-      <c r="F97" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="F97">
+        <v>3</v>
+      </c>
+      <c r="G97" t="s">
+        <v>102</v>
+      </c>
+      <c r="H97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -2748,13 +3336,19 @@
         <v>0</v>
       </c>
       <c r="E98">
-        <v>2.455480850087047e-14</v>
-      </c>
-      <c r="F98" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>2.455480850087046e-14</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98" t="s">
+        <v>103</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -2770,11 +3364,17 @@
       <c r="E99">
         <v>0.1390152649682901</v>
       </c>
-      <c r="F99" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="F99">
+        <v>13</v>
+      </c>
+      <c r="G99" t="s">
+        <v>104</v>
+      </c>
+      <c r="H99">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -2790,11 +3390,17 @@
       <c r="E100">
         <v>0.003885824541425694</v>
       </c>
-      <c r="F100" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="F100">
+        <v>1</v>
+      </c>
+      <c r="G100" t="s">
+        <v>105</v>
+      </c>
+      <c r="H100">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -2810,11 +3416,17 @@
       <c r="E101">
         <v>0.01788893428896628</v>
       </c>
-      <c r="F101" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+      <c r="F101">
+        <v>3</v>
+      </c>
+      <c r="G101" t="s">
+        <v>106</v>
+      </c>
+      <c r="H101">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -2828,13 +3440,19 @@
         <v>0.1194029850746269</v>
       </c>
       <c r="E102">
-        <v>0.05589651982151578</v>
-      </c>
-      <c r="F102" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>0.05589651982151576</v>
+      </c>
+      <c r="F102">
+        <v>8</v>
+      </c>
+      <c r="G102" t="s">
+        <v>107</v>
+      </c>
+      <c r="H102">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -2848,13 +3466,19 @@
         <v>0.1268656716417911</v>
       </c>
       <c r="E103">
-        <v>0.1257413967680814</v>
-      </c>
-      <c r="F103" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>0.1257413967680813</v>
+      </c>
+      <c r="F103">
+        <v>14</v>
+      </c>
+      <c r="G103" t="s">
+        <v>108</v>
+      </c>
+      <c r="H103">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -2870,11 +3494,17 @@
       <c r="E104">
         <v>0.271590238244408</v>
       </c>
-      <c r="F104" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
+      <c r="F104">
+        <v>51</v>
+      </c>
+      <c r="G104" t="s">
+        <v>109</v>
+      </c>
+      <c r="H104">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -2888,13 +3518,19 @@
         <v>0.1716417910447761</v>
       </c>
       <c r="E105">
-        <v>0.09097725694970631</v>
-      </c>
-      <c r="F105" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
+        <v>0.09097725694970628</v>
+      </c>
+      <c r="F105">
+        <v>11</v>
+      </c>
+      <c r="G105" t="s">
+        <v>110</v>
+      </c>
+      <c r="H105">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -2908,13 +3544,19 @@
         <v>0.04477611940298507</v>
       </c>
       <c r="E106">
-        <v>2.514412390489136e-11</v>
-      </c>
-      <c r="F106" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
+        <v>2.514412390489135e-11</v>
+      </c>
+      <c r="F106">
+        <v>1</v>
+      </c>
+      <c r="G106" t="s">
+        <v>111</v>
+      </c>
+      <c r="H106">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -2928,13 +3570,19 @@
         <v>0</v>
       </c>
       <c r="E107">
-        <v>2.455480850087047e-14</v>
-      </c>
-      <c r="F107" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
+        <v>2.455480850087046e-14</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107" t="s">
+        <v>112</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -2950,11 +3598,17 @@
       <c r="E108">
         <v>4.348902133589168e-10</v>
       </c>
-      <c r="F108" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
+      <c r="F108">
+        <v>2</v>
+      </c>
+      <c r="G108" t="s">
+        <v>113</v>
+      </c>
+      <c r="H108">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -2968,13 +3622,19 @@
         <v>0.09701492537313433</v>
       </c>
       <c r="E109">
-        <v>0.04241100997540351</v>
-      </c>
-      <c r="F109" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
+        <v>0.0424110099754035</v>
+      </c>
+      <c r="F109">
+        <v>7</v>
+      </c>
+      <c r="G109" t="s">
+        <v>114</v>
+      </c>
+      <c r="H109">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -2988,13 +3648,19 @@
         <v>0.007462686567164179</v>
       </c>
       <c r="E110">
-        <v>2.455480850087047e-14</v>
-      </c>
-      <c r="F110" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
+        <v>2.455480850087046e-14</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+      <c r="G110" t="s">
+        <v>115</v>
+      </c>
+      <c r="H110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -3008,13 +3674,19 @@
         <v>0.1343283582089552</v>
       </c>
       <c r="E111">
-        <v>0.09034800188302348</v>
-      </c>
-      <c r="F111" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
+        <v>0.09034800188302346</v>
+      </c>
+      <c r="F111">
+        <v>10</v>
+      </c>
+      <c r="G111" t="s">
+        <v>116</v>
+      </c>
+      <c r="H111">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -3028,13 +3700,19 @@
         <v>0.03731343283582089</v>
       </c>
       <c r="E112">
-        <v>2.687769338505282e-10</v>
-      </c>
-      <c r="F112" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
+        <v>2.687769338505281e-10</v>
+      </c>
+      <c r="F112">
+        <v>1</v>
+      </c>
+      <c r="G112" t="s">
+        <v>117</v>
+      </c>
+      <c r="H112">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -3048,13 +3726,19 @@
         <v>0.1268656716417911</v>
       </c>
       <c r="E113">
-        <v>0.06764313431491678</v>
-      </c>
-      <c r="F113" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
+        <v>0.06764313431491677</v>
+      </c>
+      <c r="F113">
+        <v>6</v>
+      </c>
+      <c r="G113" t="s">
+        <v>118</v>
+      </c>
+      <c r="H113">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -3068,13 +3752,19 @@
         <v>0.05970149253731343</v>
       </c>
       <c r="E114">
-        <v>0.01291673091206783</v>
-      </c>
-      <c r="F114" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
+        <v>0.01291673091206784</v>
+      </c>
+      <c r="F114">
+        <v>2</v>
+      </c>
+      <c r="G114" t="s">
+        <v>119</v>
+      </c>
+      <c r="H114">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -3088,13 +3778,19 @@
         <v>0.3208955223880597</v>
       </c>
       <c r="E115">
-        <v>0.1338724729757148</v>
-      </c>
-      <c r="F115" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
+        <v>0.1338724729757147</v>
+      </c>
+      <c r="F115">
+        <v>15</v>
+      </c>
+      <c r="G115" t="s">
+        <v>120</v>
+      </c>
+      <c r="H115">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -3108,13 +3804,19 @@
         <v>0.02238805970149254</v>
       </c>
       <c r="E116">
-        <v>2.455480850087047e-14</v>
-      </c>
-      <c r="F116" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
+        <v>2.455480850087046e-14</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+      <c r="G116" t="s">
+        <v>121</v>
+      </c>
+      <c r="H116">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -3130,11 +3832,17 @@
       <c r="E117">
         <v>0.01587971737259935</v>
       </c>
-      <c r="F117" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
+      <c r="F117">
+        <v>2</v>
+      </c>
+      <c r="G117" t="s">
+        <v>122</v>
+      </c>
+      <c r="H117">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -3148,13 +3856,19 @@
         <v>0.01492537313432836</v>
       </c>
       <c r="E118">
-        <v>0.003719439693224503</v>
-      </c>
-      <c r="F118" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
+        <v>0.003719439693224502</v>
+      </c>
+      <c r="F118">
+        <v>1</v>
+      </c>
+      <c r="G118" t="s">
+        <v>123</v>
+      </c>
+      <c r="H118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -3168,13 +3882,19 @@
         <v>0.01492537313432836</v>
       </c>
       <c r="E119">
-        <v>2.455480850087047e-14</v>
-      </c>
-      <c r="F119" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
+        <v>2.455480850087046e-14</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+      <c r="G119" t="s">
+        <v>124</v>
+      </c>
+      <c r="H119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -3188,13 +3908,19 @@
         <v>0.02238805970149254</v>
       </c>
       <c r="E120">
-        <v>2.455480850087047e-14</v>
-      </c>
-      <c r="F120" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
+        <v>2.455480850087046e-14</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+      <c r="G120" t="s">
+        <v>125</v>
+      </c>
+      <c r="H120">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -3208,13 +3934,19 @@
         <v>0.03731343283582089</v>
       </c>
       <c r="E121">
-        <v>0.00371943969347005</v>
-      </c>
-      <c r="F121" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
+        <v>0.003719439693470049</v>
+      </c>
+      <c r="F121">
+        <v>2</v>
+      </c>
+      <c r="G121" t="s">
+        <v>126</v>
+      </c>
+      <c r="H121">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -3228,13 +3960,19 @@
         <v>0.01492537313432836</v>
       </c>
       <c r="E122">
-        <v>2.455480850087047e-14</v>
-      </c>
-      <c r="F122" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6">
+        <v>2.455480850087046e-14</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+      <c r="G122" t="s">
+        <v>127</v>
+      </c>
+      <c r="H122">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -3248,13 +3986,19 @@
         <v>0.02238805970149254</v>
       </c>
       <c r="E123">
-        <v>2.455480850087047e-14</v>
-      </c>
-      <c r="F123" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6">
+        <v>2.455480850087046e-14</v>
+      </c>
+      <c r="F123">
+        <v>0</v>
+      </c>
+      <c r="G123" t="s">
+        <v>128</v>
+      </c>
+      <c r="H123">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -3270,11 +4014,17 @@
       <c r="E124">
         <v>0.1644123003212482</v>
       </c>
-      <c r="F124" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6">
+      <c r="F124">
+        <v>17</v>
+      </c>
+      <c r="G124" t="s">
+        <v>129</v>
+      </c>
+      <c r="H124">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -3288,13 +4038,19 @@
         <v>0.01492537313432836</v>
       </c>
       <c r="E125">
-        <v>2.455480850087047e-14</v>
-      </c>
-      <c r="F125" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6">
+        <v>2.455480850087046e-14</v>
+      </c>
+      <c r="F125">
+        <v>0</v>
+      </c>
+      <c r="G125" t="s">
+        <v>130</v>
+      </c>
+      <c r="H125">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -3310,11 +4066,17 @@
       <c r="E126">
         <v>0.1002795336250808</v>
       </c>
-      <c r="F126" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
+      <c r="F126">
+        <v>10</v>
+      </c>
+      <c r="G126" t="s">
+        <v>131</v>
+      </c>
+      <c r="H126">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -3328,13 +4090,19 @@
         <v>0.007462686567164179</v>
       </c>
       <c r="E127">
-        <v>2.455480850087047e-14</v>
-      </c>
-      <c r="F127" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6">
+        <v>2.455480850087046e-14</v>
+      </c>
+      <c r="F127">
+        <v>0</v>
+      </c>
+      <c r="G127" t="s">
+        <v>132</v>
+      </c>
+      <c r="H127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -3348,13 +4116,19 @@
         <v>0.01492537313432836</v>
       </c>
       <c r="E128">
-        <v>2.455480850087047e-14</v>
-      </c>
-      <c r="F128" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
+        <v>2.455480850087046e-14</v>
+      </c>
+      <c r="F128">
+        <v>0</v>
+      </c>
+      <c r="G128" t="s">
+        <v>133</v>
+      </c>
+      <c r="H128">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -3368,13 +4142,19 @@
         <v>0</v>
       </c>
       <c r="E129">
-        <v>2.455480850087047e-14</v>
-      </c>
-      <c r="F129" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
+        <v>2.455480850087046e-14</v>
+      </c>
+      <c r="F129">
+        <v>0</v>
+      </c>
+      <c r="G129" t="s">
+        <v>134</v>
+      </c>
+      <c r="H129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -3388,13 +4168,19 @@
         <v>0.08208955223880597</v>
       </c>
       <c r="E130">
-        <v>0.01826999100572706</v>
-      </c>
-      <c r="F130" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
+        <v>0.01826999100572705</v>
+      </c>
+      <c r="F130">
+        <v>5</v>
+      </c>
+      <c r="G130" t="s">
+        <v>135</v>
+      </c>
+      <c r="H130">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -3408,13 +4194,19 @@
         <v>0</v>
       </c>
       <c r="E131">
-        <v>2.455480850087047e-14</v>
-      </c>
-      <c r="F131" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
+        <v>2.455480850087046e-14</v>
+      </c>
+      <c r="F131">
+        <v>0</v>
+      </c>
+      <c r="G131" t="s">
+        <v>136</v>
+      </c>
+      <c r="H131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -3428,13 +4220,19 @@
         <v>0.02238805970149254</v>
       </c>
       <c r="E132">
-        <v>2.455480850087047e-14</v>
-      </c>
-      <c r="F132" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6">
+        <v>2.455480850087046e-14</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+      <c r="G132" t="s">
+        <v>137</v>
+      </c>
+      <c r="H132">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -3448,13 +4246,19 @@
         <v>0.01492537313432836</v>
       </c>
       <c r="E133">
-        <v>2.455480850087047e-14</v>
-      </c>
-      <c r="F133" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6">
+        <v>2.455480850087046e-14</v>
+      </c>
+      <c r="F133">
+        <v>0</v>
+      </c>
+      <c r="G133" t="s">
+        <v>138</v>
+      </c>
+      <c r="H133">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -3468,13 +4272,19 @@
         <v>0.06716417910447761</v>
       </c>
       <c r="E134">
-        <v>2.514412390489136e-11</v>
-      </c>
-      <c r="F134" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6">
+        <v>2.514412390489135e-11</v>
+      </c>
+      <c r="F134">
+        <v>1</v>
+      </c>
+      <c r="G134" t="s">
+        <v>139</v>
+      </c>
+      <c r="H134">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -3488,13 +4298,19 @@
         <v>0.06716417910447761</v>
       </c>
       <c r="E135">
-        <v>2.514412390489136e-11</v>
-      </c>
-      <c r="F135" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6">
+        <v>2.514412390489135e-11</v>
+      </c>
+      <c r="F135">
+        <v>1</v>
+      </c>
+      <c r="G135" t="s">
+        <v>140</v>
+      </c>
+      <c r="H135">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -3510,8 +4326,14 @@
       <c r="E136">
         <v>4.348902133589168e-10</v>
       </c>
-      <c r="F136" t="s">
-        <v>139</v>
+      <c r="F136">
+        <v>2</v>
+      </c>
+      <c r="G136" t="s">
+        <v>141</v>
+      </c>
+      <c r="H136">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/notebooks/Data/Star_Wars_Episode_II_Attack_of_the_Clones/centrality.xlsx
+++ b/notebooks/Data/Star_Wars_Episode_II_Attack_of_the_Clones/centrality.xlsx
@@ -211,100 +211,100 @@
     <t>Obi-Wan Kenobi</t>
   </si>
   <si>
+    <t>Eeth Koth</t>
+  </si>
+  <si>
+    <t>Graf Zapalo</t>
+  </si>
+  <si>
+    <t>Ki-Adi-Mundi</t>
+  </si>
+  <si>
+    <t>Yoda</t>
+  </si>
+  <si>
+    <t>Even Piell</t>
+  </si>
+  <si>
+    <t>Nicanas Tassu</t>
+  </si>
+  <si>
+    <t>Braata</t>
+  </si>
+  <si>
+    <t>Jempa</t>
+  </si>
+  <si>
+    <t>Edern Lars</t>
+  </si>
+  <si>
+    <t>Que-Mars Redath-Gom</t>
+  </si>
+  <si>
+    <t>Tox Don</t>
+  </si>
+  <si>
+    <t>Tikkes</t>
+  </si>
+  <si>
+    <t>Sun Fac</t>
+  </si>
+  <si>
+    <t>Tundra Dowmeia</t>
+  </si>
+  <si>
+    <t>Hermione Bagwa</t>
+  </si>
+  <si>
+    <t>Teckla Minnau</t>
+  </si>
+  <si>
+    <t>Lexi Dio</t>
+  </si>
+  <si>
+    <t>R2-D2</t>
+  </si>
+  <si>
+    <t>Owen Lars</t>
+  </si>
+  <si>
+    <t>Wat Tambor</t>
+  </si>
+  <si>
+    <t>Chon Actrion</t>
+  </si>
+  <si>
+    <t>Galdos Stouff</t>
+  </si>
+  <si>
+    <t>Agen Kolar</t>
+  </si>
+  <si>
+    <t>Ryoo Naberrie</t>
+  </si>
+  <si>
+    <t>Pooja Naberrie</t>
+  </si>
+  <si>
+    <t>CT-411</t>
+  </si>
+  <si>
+    <t>Zam Wesell</t>
+  </si>
+  <si>
+    <t>Po Nudo</t>
+  </si>
+  <si>
+    <t>Fi-Ek Sirch</t>
+  </si>
+  <si>
+    <t>Magaloof</t>
+  </si>
+  <si>
+    <t>Dormé</t>
+  </si>
+  <si>
     <t>Palo Jemabie</t>
-  </si>
-  <si>
-    <t>Graf Zapalo</t>
-  </si>
-  <si>
-    <t>Ki-Adi-Mundi</t>
-  </si>
-  <si>
-    <t>Yoda</t>
-  </si>
-  <si>
-    <t>Even Piell</t>
-  </si>
-  <si>
-    <t>Nicanas Tassu</t>
-  </si>
-  <si>
-    <t>Braata</t>
-  </si>
-  <si>
-    <t>Jempa</t>
-  </si>
-  <si>
-    <t>Edern Lars</t>
-  </si>
-  <si>
-    <t>Que-Mars Redath-Gom</t>
-  </si>
-  <si>
-    <t>Tox Don</t>
-  </si>
-  <si>
-    <t>Tikkes</t>
-  </si>
-  <si>
-    <t>Sun Fac</t>
-  </si>
-  <si>
-    <t>Tundra Dowmeia</t>
-  </si>
-  <si>
-    <t>Hermione Bagwa</t>
-  </si>
-  <si>
-    <t>Teckla Minnau</t>
-  </si>
-  <si>
-    <t>Lexi Dio</t>
-  </si>
-  <si>
-    <t>R2-D2</t>
-  </si>
-  <si>
-    <t>Owen Lars</t>
-  </si>
-  <si>
-    <t>Wat Tambor</t>
-  </si>
-  <si>
-    <t>Chon Actrion</t>
-  </si>
-  <si>
-    <t>Galdos Stouff</t>
-  </si>
-  <si>
-    <t>Agen Kolar</t>
-  </si>
-  <si>
-    <t>Ryoo Naberrie</t>
-  </si>
-  <si>
-    <t>Pooja Naberrie</t>
-  </si>
-  <si>
-    <t>CT-411</t>
-  </si>
-  <si>
-    <t>Zam Wesell</t>
-  </si>
-  <si>
-    <t>Po Nudo</t>
-  </si>
-  <si>
-    <t>Fi-Ek Sirch</t>
-  </si>
-  <si>
-    <t>Magaloof</t>
-  </si>
-  <si>
-    <t>Dormé</t>
-  </si>
-  <si>
-    <t>Eeth Koth</t>
   </si>
   <si>
     <t>Paddy Accu</t>
@@ -840,7 +840,7 @@
         <v>0.05223880597014925</v>
       </c>
       <c r="E2">
-        <v>0.02144550121794862</v>
+        <v>0.02144550121794863</v>
       </c>
       <c r="F2">
         <v>4</v>
@@ -866,7 +866,7 @@
         <v>0.007462686567164179</v>
       </c>
       <c r="E3">
-        <v>2.455480850087046e-14</v>
+        <v>2.455480850087047e-14</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -892,7 +892,7 @@
         <v>0.1044776119402985</v>
       </c>
       <c r="E4">
-        <v>0.05853348112229879</v>
+        <v>0.0585334811222988</v>
       </c>
       <c r="F4">
         <v>6</v>
@@ -918,7 +918,7 @@
         <v>0.04477611940298507</v>
       </c>
       <c r="E5">
-        <v>0.00663213261278894</v>
+        <v>0.006632132612788942</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -996,7 +996,7 @@
         <v>0.08208955223880597</v>
       </c>
       <c r="E8">
-        <v>2.455480850087046e-14</v>
+        <v>2.455480850087047e-14</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1048,7 +1048,7 @@
         <v>0.02985074626865672</v>
       </c>
       <c r="E10">
-        <v>2.455480850087046e-14</v>
+        <v>2.455480850087047e-14</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0.4552238805970149</v>
       </c>
       <c r="E11">
-        <v>0.2618233098734617</v>
+        <v>0.2618233098734618</v>
       </c>
       <c r="F11">
         <v>42</v>
@@ -1126,7 +1126,7 @@
         <v>0.02985074626865672</v>
       </c>
       <c r="E13">
-        <v>2.455480850087046e-14</v>
+        <v>2.455480850087047e-14</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1152,7 +1152,7 @@
         <v>0.03731343283582089</v>
       </c>
       <c r="E14">
-        <v>2.514412390489135e-11</v>
+        <v>2.514412390489136e-11</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -1178,7 +1178,7 @@
         <v>0.02985074626865672</v>
       </c>
       <c r="E15">
-        <v>0.01247717905899593</v>
+        <v>0.01247717905899594</v>
       </c>
       <c r="F15">
         <v>2</v>
@@ -1256,7 +1256,7 @@
         <v>0.1791044776119403</v>
       </c>
       <c r="E18">
-        <v>0.09717836577847852</v>
+        <v>0.09717836577847853</v>
       </c>
       <c r="F18">
         <v>9</v>
@@ -1308,7 +1308,7 @@
         <v>0.1044776119402985</v>
       </c>
       <c r="E20">
-        <v>0.04686379776670072</v>
+        <v>0.04686379776670074</v>
       </c>
       <c r="F20">
         <v>6</v>
@@ -1334,7 +1334,7 @@
         <v>0.2537313432835821</v>
       </c>
       <c r="E21">
-        <v>0.1482361462768888</v>
+        <v>0.1482361462768889</v>
       </c>
       <c r="F21">
         <v>20</v>
@@ -1360,7 +1360,7 @@
         <v>0.05223880597014925</v>
       </c>
       <c r="E22">
-        <v>2.687769338505281e-10</v>
+        <v>2.687769338505282e-10</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -1386,7 +1386,7 @@
         <v>0.835820895522388</v>
       </c>
       <c r="E23">
-        <v>0.2982687018315967</v>
+        <v>0.2982687018315968</v>
       </c>
       <c r="F23">
         <v>69</v>
@@ -1403,7 +1403,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.01642789718572908</v>
+        <v>0.01642789718572909</v>
       </c>
       <c r="C24">
         <v>38</v>
@@ -1490,7 +1490,7 @@
         <v>0.04477611940298507</v>
       </c>
       <c r="E27">
-        <v>1.866165446066155e-12</v>
+        <v>1.866165446066156e-12</v>
       </c>
       <c r="F27">
         <v>3</v>
@@ -1568,7 +1568,7 @@
         <v>0.1865671641791045</v>
       </c>
       <c r="E30">
-        <v>0.07287551024603611</v>
+        <v>0.07287551024603613</v>
       </c>
       <c r="F30">
         <v>7</v>
@@ -1620,7 +1620,7 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>2.455480850087046e-14</v>
+        <v>2.455480850087047e-14</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -1698,7 +1698,7 @@
         <v>0.007462686567164179</v>
       </c>
       <c r="E35">
-        <v>2.455480850087046e-14</v>
+        <v>2.455480850087047e-14</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -1750,7 +1750,7 @@
         <v>0.01492537313432836</v>
       </c>
       <c r="E37">
-        <v>2.455480850087046e-14</v>
+        <v>2.455480850087047e-14</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -1776,7 +1776,7 @@
         <v>0.1268656716417911</v>
       </c>
       <c r="E38">
-        <v>0.09783422281736533</v>
+        <v>0.09783422281736534</v>
       </c>
       <c r="F38">
         <v>8</v>
@@ -1802,7 +1802,7 @@
         <v>0.2611940298507462</v>
       </c>
       <c r="E39">
-        <v>0.2120899090698009</v>
+        <v>0.212089909069801</v>
       </c>
       <c r="F39">
         <v>25</v>
@@ -1828,7 +1828,7 @@
         <v>0.02238805970149254</v>
       </c>
       <c r="E40">
-        <v>2.455480850087046e-14</v>
+        <v>2.455480850087047e-14</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -1854,7 +1854,7 @@
         <v>0.02985074626865672</v>
       </c>
       <c r="E41">
-        <v>0.003900711649066043</v>
+        <v>0.003900711649066044</v>
       </c>
       <c r="F41">
         <v>2</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <v>2.455480850087046e-14</v>
+        <v>2.455480850087047e-14</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -1984,7 +1984,7 @@
         <v>0.02985074626865672</v>
       </c>
       <c r="E46">
-        <v>2.455480850087046e-14</v>
+        <v>2.455480850087047e-14</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -2036,7 +2036,7 @@
         <v>0.01492537313432836</v>
       </c>
       <c r="E48">
-        <v>2.455480850087046e-14</v>
+        <v>2.455480850087047e-14</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -2062,7 +2062,7 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>2.455480850087046e-14</v>
+        <v>2.455480850087047e-14</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -2088,7 +2088,7 @@
         <v>0.1194029850746269</v>
       </c>
       <c r="E50">
-        <v>0.06303989561971356</v>
+        <v>0.06303989561971357</v>
       </c>
       <c r="F50">
         <v>5</v>
@@ -2192,7 +2192,7 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>2.455480850087046e-14</v>
+        <v>2.455480850087047e-14</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -2218,7 +2218,7 @@
         <v>0.02985074626865672</v>
       </c>
       <c r="E55">
-        <v>2.455480850087046e-14</v>
+        <v>2.455480850087047e-14</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -2244,7 +2244,7 @@
         <v>0.01492537313432836</v>
       </c>
       <c r="E56">
-        <v>2.455480850087046e-14</v>
+        <v>2.455480850087047e-14</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -2270,7 +2270,7 @@
         <v>0.1119402985074627</v>
       </c>
       <c r="E57">
-        <v>0.08262723622105825</v>
+        <v>0.08262723622105826</v>
       </c>
       <c r="F57">
         <v>10</v>
@@ -2339,25 +2339,25 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0</v>
+        <v>0.0004826622335880557</v>
       </c>
       <c r="C60">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D60">
-        <v>0.02985074626865672</v>
+        <v>0.1194029850746269</v>
       </c>
       <c r="E60">
-        <v>0.01561186977399064</v>
+        <v>0.07376956536638371</v>
       </c>
       <c r="F60">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G60" t="s">
         <v>65</v>
       </c>
       <c r="H60">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2374,7 +2374,7 @@
         <v>0.02238805970149254</v>
       </c>
       <c r="E61">
-        <v>2.455480850087046e-14</v>
+        <v>2.455480850087047e-14</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -2426,7 +2426,7 @@
         <v>0.3955223880597015</v>
       </c>
       <c r="E63">
-        <v>0.2232797699885381</v>
+        <v>0.2232797699885382</v>
       </c>
       <c r="F63">
         <v>36</v>
@@ -2452,7 +2452,7 @@
         <v>0.1044776119402985</v>
       </c>
       <c r="E64">
-        <v>0.08642032073210779</v>
+        <v>0.0864203207321078</v>
       </c>
       <c r="F64">
         <v>8</v>
@@ -2478,7 +2478,7 @@
         <v>0.04477611940298507</v>
       </c>
       <c r="E65">
-        <v>2.514412390489135e-11</v>
+        <v>2.514412390489136e-11</v>
       </c>
       <c r="F65">
         <v>1</v>
@@ -2504,7 +2504,7 @@
         <v>0</v>
       </c>
       <c r="E66">
-        <v>2.455480850087046e-14</v>
+        <v>2.455480850087047e-14</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>0.007462686567164179</v>
       </c>
       <c r="E67">
-        <v>2.455480850087046e-14</v>
+        <v>2.455480850087047e-14</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -2582,7 +2582,7 @@
         <v>0</v>
       </c>
       <c r="E69">
-        <v>2.455480850087046e-14</v>
+        <v>2.455480850087047e-14</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>0.02985074626865672</v>
       </c>
       <c r="E70">
-        <v>0.003900711649066043</v>
+        <v>0.003900711649066044</v>
       </c>
       <c r="F70">
         <v>2</v>
@@ -2634,7 +2634,7 @@
         <v>0.01492537313432836</v>
       </c>
       <c r="E71">
-        <v>3.769163104883616e-11</v>
+        <v>3.769163104883618e-11</v>
       </c>
       <c r="F71">
         <v>1</v>
@@ -2660,7 +2660,7 @@
         <v>0.007462686567164179</v>
       </c>
       <c r="E72">
-        <v>2.455480850087046e-14</v>
+        <v>2.455480850087047e-14</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -2686,7 +2686,7 @@
         <v>0.05223880597014925</v>
       </c>
       <c r="E73">
-        <v>3.771618585733703e-11</v>
+        <v>3.771618585733705e-11</v>
       </c>
       <c r="F73">
         <v>2</v>
@@ -2738,7 +2738,7 @@
         <v>0.03731343283582089</v>
       </c>
       <c r="E75">
-        <v>0.01713462530082499</v>
+        <v>0.01713462530082498</v>
       </c>
       <c r="F75">
         <v>1</v>
@@ -2764,7 +2764,7 @@
         <v>0.01492537313432836</v>
       </c>
       <c r="E76">
-        <v>2.455480850087046e-14</v>
+        <v>2.455480850087047e-14</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.009426707872971613</v>
+        <v>0.009426707872971615</v>
       </c>
       <c r="C77">
         <v>42</v>
@@ -2816,7 +2816,7 @@
         <v>0.1343283582089552</v>
       </c>
       <c r="E78">
-        <v>0.06411431120940383</v>
+        <v>0.06411431120940382</v>
       </c>
       <c r="F78">
         <v>8</v>
@@ -2842,7 +2842,7 @@
         <v>0.1194029850746269</v>
       </c>
       <c r="E79">
-        <v>0.06474628483253866</v>
+        <v>0.06474628483253868</v>
       </c>
       <c r="F79">
         <v>7</v>
@@ -2868,7 +2868,7 @@
         <v>0</v>
       </c>
       <c r="E80">
-        <v>2.455480850087046e-14</v>
+        <v>2.455480850087047e-14</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -2894,7 +2894,7 @@
         <v>0.01492537313432836</v>
       </c>
       <c r="E81">
-        <v>2.514412390489135e-11</v>
+        <v>2.514412390489136e-11</v>
       </c>
       <c r="F81">
         <v>1</v>
@@ -2920,7 +2920,7 @@
         <v>0.1119402985074627</v>
       </c>
       <c r="E82">
-        <v>0.06461640467758833</v>
+        <v>0.06461640467758835</v>
       </c>
       <c r="F82">
         <v>7</v>
@@ -2998,7 +2998,7 @@
         <v>0.1044776119402985</v>
       </c>
       <c r="E85">
-        <v>0.04530344405071712</v>
+        <v>0.04530344405071713</v>
       </c>
       <c r="F85">
         <v>4</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="E88">
-        <v>2.455480850087046e-14</v>
+        <v>2.455480850087047e-14</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -3102,7 +3102,7 @@
         <v>0.007462686567164179</v>
       </c>
       <c r="E89">
-        <v>2.455480850087046e-14</v>
+        <v>2.455480850087047e-14</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>0.05223880597014925</v>
       </c>
       <c r="E90">
-        <v>2.455480850087046e-14</v>
+        <v>2.455480850087047e-14</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -3145,25 +3145,25 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.0004826622335880557</v>
+        <v>0</v>
       </c>
       <c r="C91">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D91">
-        <v>0.1194029850746269</v>
+        <v>0.02985074626865672</v>
       </c>
       <c r="E91">
-        <v>0.0737695653663837</v>
+        <v>0.01561186977399064</v>
       </c>
       <c r="F91">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G91" t="s">
         <v>96</v>
       </c>
       <c r="H91">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3180,7 +3180,7 @@
         <v>0.01492537313432836</v>
       </c>
       <c r="E92">
-        <v>2.455480850087046e-14</v>
+        <v>2.455480850087047e-14</v>
       </c>
       <c r="F92">
         <v>0</v>
@@ -3206,7 +3206,7 @@
         <v>0.03731343283582089</v>
       </c>
       <c r="E93">
-        <v>2.455480850087046e-14</v>
+        <v>2.455480850087047e-14</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.00399655451722488</v>
+        <v>0.003996554517224881</v>
       </c>
       <c r="C95">
         <v>27</v>
@@ -3258,7 +3258,7 @@
         <v>0.2014925373134328</v>
       </c>
       <c r="E95">
-        <v>0.1301688562996522</v>
+        <v>0.1301688562996523</v>
       </c>
       <c r="F95">
         <v>15</v>
@@ -3284,7 +3284,7 @@
         <v>0</v>
       </c>
       <c r="E96">
-        <v>2.455480850087046e-14</v>
+        <v>2.455480850087047e-14</v>
       </c>
       <c r="F96">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="E98">
-        <v>2.455480850087046e-14</v>
+        <v>2.455480850087047e-14</v>
       </c>
       <c r="F98">
         <v>0</v>
@@ -3440,7 +3440,7 @@
         <v>0.1194029850746269</v>
       </c>
       <c r="E102">
-        <v>0.05589651982151576</v>
+        <v>0.05589651982151578</v>
       </c>
       <c r="F102">
         <v>8</v>
@@ -3466,7 +3466,7 @@
         <v>0.1268656716417911</v>
       </c>
       <c r="E103">
-        <v>0.1257413967680813</v>
+        <v>0.1257413967680814</v>
       </c>
       <c r="F103">
         <v>14</v>
@@ -3518,7 +3518,7 @@
         <v>0.1716417910447761</v>
       </c>
       <c r="E105">
-        <v>0.09097725694970628</v>
+        <v>0.09097725694970631</v>
       </c>
       <c r="F105">
         <v>11</v>
@@ -3544,7 +3544,7 @@
         <v>0.04477611940298507</v>
       </c>
       <c r="E106">
-        <v>2.514412390489135e-11</v>
+        <v>2.514412390489136e-11</v>
       </c>
       <c r="F106">
         <v>1</v>
@@ -3570,7 +3570,7 @@
         <v>0</v>
       </c>
       <c r="E107">
-        <v>2.455480850087046e-14</v>
+        <v>2.455480850087047e-14</v>
       </c>
       <c r="F107">
         <v>0</v>
@@ -3622,7 +3622,7 @@
         <v>0.09701492537313433</v>
       </c>
       <c r="E109">
-        <v>0.0424110099754035</v>
+        <v>0.04241100997540351</v>
       </c>
       <c r="F109">
         <v>7</v>
@@ -3648,7 +3648,7 @@
         <v>0.007462686567164179</v>
       </c>
       <c r="E110">
-        <v>2.455480850087046e-14</v>
+        <v>2.455480850087047e-14</v>
       </c>
       <c r="F110">
         <v>0</v>
@@ -3674,7 +3674,7 @@
         <v>0.1343283582089552</v>
       </c>
       <c r="E111">
-        <v>0.09034800188302346</v>
+        <v>0.09034800188302348</v>
       </c>
       <c r="F111">
         <v>10</v>
@@ -3700,7 +3700,7 @@
         <v>0.03731343283582089</v>
       </c>
       <c r="E112">
-        <v>2.687769338505281e-10</v>
+        <v>2.687769338505282e-10</v>
       </c>
       <c r="F112">
         <v>1</v>
@@ -3726,7 +3726,7 @@
         <v>0.1268656716417911</v>
       </c>
       <c r="E113">
-        <v>0.06764313431491677</v>
+        <v>0.06764313431491678</v>
       </c>
       <c r="F113">
         <v>6</v>
@@ -3752,7 +3752,7 @@
         <v>0.05970149253731343</v>
       </c>
       <c r="E114">
-        <v>0.01291673091206784</v>
+        <v>0.01291673091206783</v>
       </c>
       <c r="F114">
         <v>2</v>
@@ -3778,7 +3778,7 @@
         <v>0.3208955223880597</v>
       </c>
       <c r="E115">
-        <v>0.1338724729757147</v>
+        <v>0.1338724729757148</v>
       </c>
       <c r="F115">
         <v>15</v>
@@ -3804,7 +3804,7 @@
         <v>0.02238805970149254</v>
       </c>
       <c r="E116">
-        <v>2.455480850087046e-14</v>
+        <v>2.455480850087047e-14</v>
       </c>
       <c r="F116">
         <v>0</v>
@@ -3856,7 +3856,7 @@
         <v>0.01492537313432836</v>
       </c>
       <c r="E118">
-        <v>0.003719439693224502</v>
+        <v>0.003719439693224503</v>
       </c>
       <c r="F118">
         <v>1</v>
@@ -3882,7 +3882,7 @@
         <v>0.01492537313432836</v>
       </c>
       <c r="E119">
-        <v>2.455480850087046e-14</v>
+        <v>2.455480850087047e-14</v>
       </c>
       <c r="F119">
         <v>0</v>
@@ -3908,7 +3908,7 @@
         <v>0.02238805970149254</v>
       </c>
       <c r="E120">
-        <v>2.455480850087046e-14</v>
+        <v>2.455480850087047e-14</v>
       </c>
       <c r="F120">
         <v>0</v>
@@ -3934,7 +3934,7 @@
         <v>0.03731343283582089</v>
       </c>
       <c r="E121">
-        <v>0.003719439693470049</v>
+        <v>0.00371943969347005</v>
       </c>
       <c r="F121">
         <v>2</v>
@@ -3960,7 +3960,7 @@
         <v>0.01492537313432836</v>
       </c>
       <c r="E122">
-        <v>2.455480850087046e-14</v>
+        <v>2.455480850087047e-14</v>
       </c>
       <c r="F122">
         <v>0</v>
@@ -3986,7 +3986,7 @@
         <v>0.02238805970149254</v>
       </c>
       <c r="E123">
-        <v>2.455480850087046e-14</v>
+        <v>2.455480850087047e-14</v>
       </c>
       <c r="F123">
         <v>0</v>
@@ -4038,7 +4038,7 @@
         <v>0.01492537313432836</v>
       </c>
       <c r="E125">
-        <v>2.455480850087046e-14</v>
+        <v>2.455480850087047e-14</v>
       </c>
       <c r="F125">
         <v>0</v>
@@ -4090,7 +4090,7 @@
         <v>0.007462686567164179</v>
       </c>
       <c r="E127">
-        <v>2.455480850087046e-14</v>
+        <v>2.455480850087047e-14</v>
       </c>
       <c r="F127">
         <v>0</v>
@@ -4116,7 +4116,7 @@
         <v>0.01492537313432836</v>
       </c>
       <c r="E128">
-        <v>2.455480850087046e-14</v>
+        <v>2.455480850087047e-14</v>
       </c>
       <c r="F128">
         <v>0</v>
@@ -4142,7 +4142,7 @@
         <v>0</v>
       </c>
       <c r="E129">
-        <v>2.455480850087046e-14</v>
+        <v>2.455480850087047e-14</v>
       </c>
       <c r="F129">
         <v>0</v>
@@ -4168,7 +4168,7 @@
         <v>0.08208955223880597</v>
       </c>
       <c r="E130">
-        <v>0.01826999100572705</v>
+        <v>0.01826999100572706</v>
       </c>
       <c r="F130">
         <v>5</v>
@@ -4194,7 +4194,7 @@
         <v>0</v>
       </c>
       <c r="E131">
-        <v>2.455480850087046e-14</v>
+        <v>2.455480850087047e-14</v>
       </c>
       <c r="F131">
         <v>0</v>
@@ -4220,7 +4220,7 @@
         <v>0.02238805970149254</v>
       </c>
       <c r="E132">
-        <v>2.455480850087046e-14</v>
+        <v>2.455480850087047e-14</v>
       </c>
       <c r="F132">
         <v>0</v>
@@ -4246,7 +4246,7 @@
         <v>0.01492537313432836</v>
       </c>
       <c r="E133">
-        <v>2.455480850087046e-14</v>
+        <v>2.455480850087047e-14</v>
       </c>
       <c r="F133">
         <v>0</v>
@@ -4272,7 +4272,7 @@
         <v>0.06716417910447761</v>
       </c>
       <c r="E134">
-        <v>2.514412390489135e-11</v>
+        <v>2.514412390489136e-11</v>
       </c>
       <c r="F134">
         <v>1</v>
@@ -4298,7 +4298,7 @@
         <v>0.06716417910447761</v>
       </c>
       <c r="E135">
-        <v>2.514412390489135e-11</v>
+        <v>2.514412390489136e-11</v>
       </c>
       <c r="F135">
         <v>1</v>
